--- a/Test Case/Preethi/Test Case- Care Desk.xlsx
+++ b/Test Case/Preethi/Test Case- Care Desk.xlsx
@@ -2618,8 +2618,8 @@
   <dimension ref="A1:XFD914"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A760" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F765" sqref="F765"/>
+      <pane ySplit="1" topLeftCell="A637" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H764" sqref="H764"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -36868,7 +36868,7 @@
       <c r="J763" s="15"/>
       <c r="K763" s="15"/>
     </row>
-    <row r="764" spans="1:11" ht="179.25" customHeight="1">
+    <row r="764" spans="1:11" ht="29.25" customHeight="1">
       <c r="A764" s="26" t="s">
         <v>600</v>
       </c>
